--- a/final_results/2/github/github_stage_statistics.xlsx
+++ b/final_results/2/github/github_stage_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,78 +448,650 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>push</t>
+          <t>workflow_dispatch</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>workflow_dispatch</t>
+          <t>schedule</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>193</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>schedule</t>
+          <t>push</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>445</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>repository_dispatch</t>
+          <t>pull_request</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>427</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>pull_request</t>
+          <t>pull_request_target</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>issues</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>43</v>
+      </c>
+      <c r="C7" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>issue_comment</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>41</v>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>branch_protection_rule</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>repository_dispatch</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>script</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B11" t="n">
+        <v>158</v>
+      </c>
+      <c r="C11" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>before_install</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>71</v>
+      </c>
+      <c r="C12" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>gollum</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>create</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>workflow_run</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>before_script</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>65</v>
+      </c>
+      <c r="C16" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>release</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>53</v>
+      </c>
+      <c r="C17" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>install</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>81</v>
+      </c>
+      <c r="C19" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>build process</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>workflow_call</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>deploy</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>lint</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>after_script</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>lint and unit</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>_npm ci</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>vim8</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>neovim</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>vim74</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>test shell</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>pull_request_review</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>workflow</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>pull_request_review_comment</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>create-vars</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>build-one</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>build-all</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>travis</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>test-docs</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>push-tx</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>unit tests</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>validations</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>test-sbt-1.6.x</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>moderator</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>tests - phase 1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>tests - phase 2</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>cron</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
         <v>1</v>
       </c>
     </row>

--- a/final_results/2/github/github_stage_statistics.xlsx
+++ b/final_results/2/github/github_stage_statistics.xlsx
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C3" t="n">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C4" t="n">
-        <v>2206</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C5" t="n">
-        <v>2058</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         <v>65</v>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -695,176 +695,176 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>deploy</t>
+          <t>status</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>lint</t>
+          <t>deploy</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>build</t>
+          <t>lint</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>after_script</t>
+          <t>build</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>lint and unit</t>
+          <t>after_script</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lint and unit</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>_npm ci</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>vim8</t>
+          <t>_npm ci</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>neovim</t>
+          <t>vim8</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>vim74</t>
+          <t>neovim</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>test shell</t>
+          <t>vim74</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>pull_request_review</t>
+          <t>test shell</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>workflow</t>
+          <t>pull_request_review</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>pull_request_review_comment</t>
+          <t>workflow</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -890,14 +890,14 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>pull_request_review_comment</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">

--- a/final_results/2/github/github_stage_statistics.xlsx
+++ b/final_results/2/github/github_stage_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Desktop/tfg-ci/Pruebas_finales/2/results/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0215F-B821-FC4F-AF64-ED23F6743525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1626065-B7CA-FD46-8C72-569643977F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="1260" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,6 +251,1079 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Num_projects_using</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>push</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pull_request</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>schedule</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>script</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>workflow_dispatch</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>install</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B47-274A-9C10-5148165FCA92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total_stages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>push</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pull_request</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>schedule</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>script</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>workflow_dispatch</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>install</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B47-274A-9C10-5148165FCA92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1170462367"/>
+        <c:axId val="1170986927"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1170462367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170986927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1170986927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170462367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F1A9941-7020-A64A-9079-3ACAED83BC01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,7 +1614,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -583,164 +1656,164 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="C4">
-        <v>875</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C5">
-        <v>540</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C6">
-        <v>195</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C11">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>31</v>
@@ -748,128 +1821,128 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -880,7 +1953,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -891,13 +1964,13 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1100,9 +2173,10 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
+    <sortCondition descending="1" ref="B2:B50"/>
     <sortCondition descending="1" ref="C2:C50"/>
-    <sortCondition descending="1" ref="B2:B50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>